--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/OneRate.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/OneRate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="OneRate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_lu1">#REF!</definedName>
     <definedName name="_lu2">#REF!</definedName>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="123">
   <si>
     <t>SaveLabel</t>
   </si>
@@ -218,12 +215,6 @@
     <t>OR-1</t>
   </si>
   <si>
-    <t>FEDEX_2_DAY,FEDEX_MEDIUM_BOX,HAL</t>
-  </si>
-  <si>
-    <t>FedEx Rate Request</t>
-  </si>
-  <si>
     <t>One Rate 1</t>
   </si>
   <si>
@@ -239,9 +230,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Sender_Name</t>
-  </si>
-  <si>
     <t>WAPISENDER-WBUS1100</t>
   </si>
   <si>
@@ -299,12 +287,6 @@
     <t>HAL@onerate.com</t>
   </si>
   <si>
-    <t>1509 Blake St</t>
-  </si>
-  <si>
-    <t>DENVER</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
@@ -326,24 +308,15 @@
     <t>OR-2</t>
   </si>
   <si>
-    <t>FEDEX_2_DAY,FEDEX_LARGE_BOX,HAL</t>
-  </si>
-  <si>
     <t>One Rate 2</t>
   </si>
   <si>
     <t>FEDEX_LARGE_BOX</t>
   </si>
   <si>
-    <t>HAL ADDRESS LINE 1</t>
-  </si>
-  <si>
     <t>OR-3</t>
   </si>
   <si>
-    <t>STANDARD_OVERNIGHT,FEDEX_ENVELOPE,HAL</t>
-  </si>
-  <si>
     <t>One Rate 3</t>
   </si>
   <si>
@@ -356,9 +329,6 @@
     <t>OR-4</t>
   </si>
   <si>
-    <t>FEDEX_2_DAY,FEDEX_EXTRA_LARGE_BOX,HAL</t>
-  </si>
-  <si>
     <t>One Rate 4</t>
   </si>
   <si>
@@ -368,9 +338,6 @@
     <t>OR-5</t>
   </si>
   <si>
-    <t>FEDEX_2_DAY,FEDEX_TUBE,HAL</t>
-  </si>
-  <si>
     <t>One Rate 5</t>
   </si>
   <si>
@@ -380,20 +347,65 @@
     <t>OR-6</t>
   </si>
   <si>
-    <t>FEDEX_2_DAY,FEDEX_PAK,HAL</t>
-  </si>
-  <si>
     <t>One Rate 6</t>
   </si>
   <si>
     <t>FEDEX_PAK</t>
+  </si>
+  <si>
+    <t>FEDEX_2_DAY, FEDEX_MEDIUM_BOX, HAL</t>
+  </si>
+  <si>
+    <t>FDXShipRequest</t>
+  </si>
+  <si>
+    <t>ONE_RATE_SHIP-1</t>
+  </si>
+  <si>
+    <t>FEDEX_2_DAY, FEDEX_LARGE_BOX, HAL</t>
+  </si>
+  <si>
+    <t>ONE_RATE_SHIP-2</t>
+  </si>
+  <si>
+    <t>STANDARD_OVERNIGHT, FEDEX_ENVELOPE, HAL</t>
+  </si>
+  <si>
+    <t>ONE_RATE_SHIP-3</t>
+  </si>
+  <si>
+    <t>8455 PARDEE DR</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>FEDEX_2_DAY, FEDEX_EXTRA_LARGE_BOX, HAL</t>
+  </si>
+  <si>
+    <t>ONE_RATE_SHIP-4</t>
+  </si>
+  <si>
+    <t>FEDEX_2_DAY, FEDEX_TUBE, HAL</t>
+  </si>
+  <si>
+    <t>ONE_RATE_SHIP-5</t>
+  </si>
+  <si>
+    <t>FEDEX_2_DAY, FEDEX_PAK, HAL</t>
+  </si>
+  <si>
+    <t>ONE_RATE_SHIP-6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -454,20 +466,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,20 +504,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6DDE8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -650,36 +644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -785,6 +749,45 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -800,7 +803,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -860,62 +863,59 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -937,45 +937,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover Page"/>
-      <sheetName val="Total Test Cases Count"/>
-      <sheetName val="US Exp Dom"/>
-      <sheetName val="US Exp Dom-Alcohol"/>
-      <sheetName val="US Exp Intl"/>
-      <sheetName val="US Exp Intl-Alcohol"/>
-      <sheetName val="US Grn Dom Intl And Home Del"/>
-      <sheetName val="Grn Alcohol"/>
-      <sheetName val="CA Exp Dom"/>
-      <sheetName val="CA Exp Intl"/>
-      <sheetName val="CA Grn Dom Intl"/>
-      <sheetName val="IMpB Smartpost test cases"/>
-      <sheetName val="ETD"/>
-      <sheetName val="OneRate"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1278,9 +1239,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1335,7 +1294,7 @@
     <col min="59" max="59" width="18.42578125" style="20" customWidth="1"/>
     <col min="60" max="60" width="19.42578125" style="20" customWidth="1"/>
     <col min="61" max="61" width="23.5703125" style="20" customWidth="1"/>
-    <col min="62" max="62" width="9.140625" style="26"/>
+    <col min="62" max="62" width="9.140625" style="21"/>
     <col min="63" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
@@ -1703,1100 +1662,1064 @@
       <c r="A3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="H3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="I3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="J3" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="K3" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="M3" s="27">
+        <v>9012704839</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="O3" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="P3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="23">
-        <v>9012704839</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="Q3" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="R3" s="27">
+        <v>33301</v>
+      </c>
+      <c r="S3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="T3" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="V3" s="27">
+        <v>9018549236</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="23">
-        <v>33301</v>
-      </c>
-      <c r="S3" s="23" t="s">
+      <c r="Z3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="T3" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="23" t="s">
+      <c r="AA3" s="27">
+        <v>99701</v>
+      </c>
+      <c r="AB3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="V3" s="23">
-        <v>9018549236</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="X3" s="23" t="s">
+      <c r="AD3" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF3" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG3" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH3" s="27">
+        <v>9762308621</v>
+      </c>
+      <c r="AI3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ3" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK3" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL3" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM3" s="27">
+        <v>9012635448</v>
+      </c>
+      <c r="AN3" s="27">
+        <v>2033469</v>
+      </c>
+      <c r="AO3" s="27">
+        <v>9762308621</v>
+      </c>
+      <c r="AP3" s="27">
+        <v>9762308621</v>
+      </c>
+      <c r="AQ3" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR3" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU3" s="27">
+        <v>99701</v>
+      </c>
+      <c r="AV3" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA3" s="23">
-        <v>99701</v>
-      </c>
-      <c r="AB3" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC3" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF3" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG3" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH3" s="23">
-        <v>9762308621</v>
-      </c>
-      <c r="AI3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK3" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL3" s="23" t="s">
+      <c r="AX3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="AM3" s="23">
-        <v>9012635448</v>
-      </c>
-      <c r="AN3" s="23">
-        <v>2033469</v>
-      </c>
-      <c r="AO3" s="23">
-        <v>9762308621</v>
-      </c>
-      <c r="AP3" s="23">
-        <v>9762308621</v>
-      </c>
-      <c r="AQ3" s="24" t="s">
+      <c r="AZ3" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AR3" s="23" t="s">
+      <c r="BA3" s="27">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="27">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="AS3" s="23" t="s">
+      <c r="BD3" s="27">
+        <v>25</v>
+      </c>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="27"/>
+      <c r="BG3" s="27"/>
+      <c r="BH3" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AT3" s="23" t="s">
+      <c r="BI3" s="29" t="s">
         <v>90</v>
-      </c>
-      <c r="AU3" s="23">
-        <v>80202</v>
-      </c>
-      <c r="AV3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW3" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX3" s="23">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA3" s="23">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="23">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD3" s="23">
-        <v>25</v>
-      </c>
-      <c r="BE3" s="23">
-        <v>10</v>
-      </c>
-      <c r="BF3" s="23">
-        <v>10</v>
-      </c>
-      <c r="BG3" s="23">
-        <v>10</v>
-      </c>
-      <c r="BH3" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI3" s="25" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="29" t="s">
+      <c r="K4" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="32">
+        <v>9012704839</v>
+      </c>
+      <c r="N4" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="O4" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="P4" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="29">
-        <v>9012704839</v>
-      </c>
-      <c r="N4" s="29" t="s">
+      <c r="Q4" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="R4" s="32">
+        <v>33301</v>
+      </c>
+      <c r="S4" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="T4" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="V4" s="32">
+        <v>9018549236</v>
+      </c>
+      <c r="W4" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="R4" s="29">
-        <v>33301</v>
-      </c>
-      <c r="S4" s="29" t="s">
+      <c r="Z4" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="U4" s="29" t="s">
+      <c r="AA4" s="32">
+        <v>99701</v>
+      </c>
+      <c r="AB4" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="29">
-        <v>9018549236</v>
-      </c>
-      <c r="W4" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" s="29" t="s">
+      <c r="AD4" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG4" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH4" s="32">
+        <v>9762308621</v>
+      </c>
+      <c r="AI4" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK4" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL4" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM4" s="32">
+        <v>9012635448</v>
+      </c>
+      <c r="AN4" s="32">
+        <v>2033469</v>
+      </c>
+      <c r="AO4" s="32">
+        <v>9762308621</v>
+      </c>
+      <c r="AP4" s="32">
+        <v>9762308621</v>
+      </c>
+      <c r="AQ4" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR4" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS4" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT4" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU4" s="32">
+        <v>99701</v>
+      </c>
+      <c r="AV4" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW4" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z4" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA4" s="29">
-        <v>99701</v>
-      </c>
-      <c r="AB4" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC4" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD4" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE4" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF4" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG4" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH4" s="29">
-        <v>9762308621</v>
-      </c>
-      <c r="AI4" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ4" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK4" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL4" s="29" t="s">
+      <c r="AX4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="AM4" s="29">
-        <v>9012635448</v>
-      </c>
-      <c r="AN4" s="29">
-        <v>2033469</v>
-      </c>
-      <c r="AO4" s="29">
-        <v>9762308621</v>
-      </c>
-      <c r="AP4" s="29">
-        <v>9762308621</v>
-      </c>
-      <c r="AQ4" s="30" t="s">
+      <c r="AZ4" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="AR4" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS4" s="29" t="s">
+      <c r="BA4" s="32">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="32">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD4" s="32">
+        <v>25</v>
+      </c>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
+      <c r="BH4" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="AT4" s="29" t="s">
+      <c r="BI4" s="34" t="s">
         <v>90</v>
-      </c>
-      <c r="AU4" s="29">
-        <v>80202</v>
-      </c>
-      <c r="AV4" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW4" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX4" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ4" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA4" s="29">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="29">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD4" s="29">
-        <v>25</v>
-      </c>
-      <c r="BE4" s="29">
-        <v>10</v>
-      </c>
-      <c r="BF4" s="29">
-        <v>10</v>
-      </c>
-      <c r="BG4" s="29">
-        <v>10</v>
-      </c>
-      <c r="BH4" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI4" s="31" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="33" t="s">
+      <c r="H5" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="32">
+        <v>9012704839</v>
+      </c>
+      <c r="N5" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="O5" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="P5" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="33">
-        <v>9012704839</v>
-      </c>
-      <c r="N5" s="33" t="s">
+      <c r="Q5" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="R5" s="32">
+        <v>33301</v>
+      </c>
+      <c r="S5" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="T5" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Q5" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="R5" s="33">
-        <v>33301</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="U5" s="33" t="s">
+      <c r="V5" s="32">
+        <v>9018549236</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y5" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z5" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA5" s="32">
+        <v>10010</v>
+      </c>
+      <c r="AB5" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC5" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="V5" s="33">
-        <v>9018549236</v>
-      </c>
-      <c r="W5" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="X5" s="33" t="s">
+      <c r="AD5" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF5" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG5" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH5" s="32">
+        <v>9762308621</v>
+      </c>
+      <c r="AI5" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ5" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK5" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL5" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM5" s="32">
+        <v>9012635448</v>
+      </c>
+      <c r="AN5" s="32">
+        <v>2033469</v>
+      </c>
+      <c r="AO5" s="32">
+        <v>9762308621</v>
+      </c>
+      <c r="AP5" s="32">
+        <v>9762308621</v>
+      </c>
+      <c r="AQ5" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR5" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS5" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT5" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU5" s="32">
+        <v>10010</v>
+      </c>
+      <c r="AV5" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW5" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z5" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA5" s="33">
-        <v>99701</v>
-      </c>
-      <c r="AB5" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC5" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD5" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE5" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF5" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG5" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH5" s="33">
-        <v>9762308621</v>
-      </c>
-      <c r="AI5" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ5" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK5" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL5" s="33" t="s">
+      <c r="AX5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="AM5" s="33">
-        <v>9012635448</v>
-      </c>
-      <c r="AN5" s="33">
-        <v>2033469</v>
-      </c>
-      <c r="AO5" s="33">
-        <v>9762308621</v>
-      </c>
-      <c r="AP5" s="33">
-        <v>9762308621</v>
-      </c>
-      <c r="AQ5" s="34" t="s">
+      <c r="AZ5" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="AR5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS5" s="33" t="s">
+      <c r="BA5" s="32">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="32">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD5" s="32">
+        <v>10</v>
+      </c>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="AT5" s="33" t="s">
+      <c r="BI5" s="34" t="s">
         <v>90</v>
-      </c>
-      <c r="AU5" s="33">
-        <v>80202</v>
-      </c>
-      <c r="AV5" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW5" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX5" s="33">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ5" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA5" s="33">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="33">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD5" s="33">
-        <v>10</v>
-      </c>
-      <c r="BE5" s="33">
-        <v>10</v>
-      </c>
-      <c r="BF5" s="33">
-        <v>10</v>
-      </c>
-      <c r="BG5" s="33">
-        <v>10</v>
-      </c>
-      <c r="BH5" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI5" s="35" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="33" t="s">
+      <c r="K6" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="32">
+        <v>9012704839</v>
+      </c>
+      <c r="N6" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="O6" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="P6" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="33">
-        <v>9012704839</v>
-      </c>
-      <c r="N6" s="33" t="s">
+      <c r="Q6" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="R6" s="32">
+        <v>33301</v>
+      </c>
+      <c r="S6" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="T6" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="V6" s="32">
+        <v>9018549236</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="R6" s="33">
-        <v>33301</v>
-      </c>
-      <c r="S6" s="33" t="s">
+      <c r="Z6" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="T6" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="U6" s="33" t="s">
+      <c r="AA6" s="32">
+        <v>99701</v>
+      </c>
+      <c r="AB6" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC6" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="V6" s="33">
-        <v>9018549236</v>
-      </c>
-      <c r="W6" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="X6" s="33" t="s">
+      <c r="AD6" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE6" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF6" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG6" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH6" s="32">
+        <v>9762308621</v>
+      </c>
+      <c r="AI6" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK6" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL6" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM6" s="32">
+        <v>9012635448</v>
+      </c>
+      <c r="AN6" s="32">
+        <v>2033469</v>
+      </c>
+      <c r="AO6" s="32">
+        <v>9762308621</v>
+      </c>
+      <c r="AP6" s="32">
+        <v>9762308621</v>
+      </c>
+      <c r="AQ6" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR6" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS6" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU6" s="32">
+        <v>99701</v>
+      </c>
+      <c r="AV6" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW6" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Y6" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z6" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA6" s="33">
-        <v>99701</v>
-      </c>
-      <c r="AB6" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC6" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD6" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE6" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF6" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG6" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH6" s="33">
-        <v>9762308621</v>
-      </c>
-      <c r="AI6" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ6" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK6" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL6" s="33" t="s">
+      <c r="AX6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="AM6" s="33">
-        <v>9012635448</v>
-      </c>
-      <c r="AN6" s="33">
-        <v>2033469</v>
-      </c>
-      <c r="AO6" s="33">
-        <v>9762308621</v>
-      </c>
-      <c r="AP6" s="33">
-        <v>9762308621</v>
-      </c>
-      <c r="AQ6" s="34" t="s">
+      <c r="AZ6" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="AR6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS6" s="33" t="s">
+      <c r="BA6" s="32">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="32">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD6" s="32">
+        <v>10</v>
+      </c>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
+      <c r="BH6" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="AT6" s="33" t="s">
+      <c r="BI6" s="34" t="s">
         <v>90</v>
-      </c>
-      <c r="AU6" s="33">
-        <v>80202</v>
-      </c>
-      <c r="AV6" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW6" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX6" s="33">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ6" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA6" s="33">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="33">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD6" s="33">
-        <v>10</v>
-      </c>
-      <c r="BE6" s="33">
-        <v>10</v>
-      </c>
-      <c r="BF6" s="33">
-        <v>10</v>
-      </c>
-      <c r="BG6" s="33">
-        <v>10</v>
-      </c>
-      <c r="BH6" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI6" s="35" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="33" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" s="33" t="s">
+      <c r="K7" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="32">
+        <v>9012704839</v>
+      </c>
+      <c r="N7" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="O7" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="P7" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="33">
-        <v>9012704839</v>
-      </c>
-      <c r="N7" s="33" t="s">
+      <c r="Q7" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="R7" s="32">
+        <v>33301</v>
+      </c>
+      <c r="S7" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="T7" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="U7" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="V7" s="32">
+        <v>9018549236</v>
+      </c>
+      <c r="W7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="X7" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="R7" s="33">
-        <v>33301</v>
-      </c>
-      <c r="S7" s="33" t="s">
+      <c r="Z7" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="T7" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="U7" s="33" t="s">
+      <c r="AA7" s="32">
+        <v>99701</v>
+      </c>
+      <c r="AB7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC7" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="V7" s="33">
-        <v>9018549236</v>
-      </c>
-      <c r="W7" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="X7" s="33" t="s">
+      <c r="AD7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE7" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF7" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG7" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH7" s="32">
+        <v>9762308621</v>
+      </c>
+      <c r="AI7" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK7" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL7" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM7" s="32">
+        <v>9012635448</v>
+      </c>
+      <c r="AN7" s="32">
+        <v>2033469</v>
+      </c>
+      <c r="AO7" s="32">
+        <v>9762308621</v>
+      </c>
+      <c r="AP7" s="32">
+        <v>9762308621</v>
+      </c>
+      <c r="AQ7" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR7" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS7" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT7" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" s="32">
+        <v>99701</v>
+      </c>
+      <c r="AV7" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW7" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z7" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA7" s="33">
-        <v>99701</v>
-      </c>
-      <c r="AB7" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC7" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD7" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE7" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF7" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG7" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH7" s="33">
-        <v>9762308621</v>
-      </c>
-      <c r="AI7" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ7" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK7" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL7" s="33" t="s">
+      <c r="AX7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="AM7" s="33">
-        <v>9012635448</v>
-      </c>
-      <c r="AN7" s="33">
-        <v>2033469</v>
-      </c>
-      <c r="AO7" s="33">
-        <v>9762308621</v>
-      </c>
-      <c r="AP7" s="33">
-        <v>9762308621</v>
-      </c>
-      <c r="AQ7" s="34" t="s">
+      <c r="AZ7" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="AR7" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS7" s="33" t="s">
+      <c r="BA7" s="32">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="32">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD7" s="32">
+        <v>10</v>
+      </c>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="32"/>
+      <c r="BG7" s="32"/>
+      <c r="BH7" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="AT7" s="33" t="s">
+      <c r="BI7" s="34" t="s">
         <v>90</v>
-      </c>
-      <c r="AU7" s="33">
-        <v>80202</v>
-      </c>
-      <c r="AV7" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW7" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX7" s="33">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ7" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA7" s="33">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="33">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD7" s="33">
-        <v>10</v>
-      </c>
-      <c r="BE7" s="33">
-        <v>10</v>
-      </c>
-      <c r="BF7" s="33">
-        <v>10</v>
-      </c>
-      <c r="BG7" s="33">
-        <v>10</v>
-      </c>
-      <c r="BH7" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI7" s="35" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="38" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="38" t="s">
+      <c r="K8" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="37">
+        <v>9012704839</v>
+      </c>
+      <c r="N8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="O8" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="P8" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="38">
-        <v>9012704839</v>
-      </c>
-      <c r="N8" s="38" t="s">
+      <c r="Q8" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="R8" s="37">
+        <v>33301</v>
+      </c>
+      <c r="S8" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="T8" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="U8" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="V8" s="37">
+        <v>9018549236</v>
+      </c>
+      <c r="W8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="X8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y8" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="R8" s="38">
-        <v>33301</v>
-      </c>
-      <c r="S8" s="38" t="s">
+      <c r="Z8" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="T8" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="U8" s="38" t="s">
+      <c r="AA8" s="37">
+        <v>99701</v>
+      </c>
+      <c r="AB8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC8" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="V8" s="38">
-        <v>9018549236</v>
-      </c>
-      <c r="W8" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="X8" s="38" t="s">
+      <c r="AD8" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE8" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF8" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG8" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH8" s="37">
+        <v>9762308621</v>
+      </c>
+      <c r="AI8" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ8" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK8" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL8" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM8" s="37">
+        <v>9012635448</v>
+      </c>
+      <c r="AN8" s="37">
+        <v>2033469</v>
+      </c>
+      <c r="AO8" s="37">
+        <v>9762308621</v>
+      </c>
+      <c r="AP8" s="37">
+        <v>9762308621</v>
+      </c>
+      <c r="AQ8" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS8" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT8" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU8" s="37">
+        <v>99701</v>
+      </c>
+      <c r="AV8" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW8" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="Y8" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z8" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA8" s="38">
-        <v>99701</v>
-      </c>
-      <c r="AB8" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC8" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD8" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE8" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF8" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG8" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH8" s="38">
-        <v>9762308621</v>
-      </c>
-      <c r="AI8" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ8" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK8" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL8" s="38" t="s">
+      <c r="AX8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="AM8" s="38">
-        <v>9012635448</v>
-      </c>
-      <c r="AN8" s="38">
-        <v>2033469</v>
-      </c>
-      <c r="AO8" s="38">
-        <v>9762308621</v>
-      </c>
-      <c r="AP8" s="38">
-        <v>9762308621</v>
-      </c>
-      <c r="AQ8" s="39" t="s">
+      <c r="AZ8" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="AR8" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS8" s="38" t="s">
+      <c r="BA8" s="37">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="37">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD8" s="37">
+        <v>10</v>
+      </c>
+      <c r="BE8" s="37"/>
+      <c r="BF8" s="37"/>
+      <c r="BG8" s="37"/>
+      <c r="BH8" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AT8" s="38" t="s">
+      <c r="BI8" s="39" t="s">
         <v>90</v>
-      </c>
-      <c r="AU8" s="38">
-        <v>80202</v>
-      </c>
-      <c r="AV8" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW8" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ8" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA8" s="38">
-        <v>1</v>
-      </c>
-      <c r="BB8" s="38">
-        <v>1</v>
-      </c>
-      <c r="BC8" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD8" s="38">
-        <v>10</v>
-      </c>
-      <c r="BE8" s="38">
-        <v>10</v>
-      </c>
-      <c r="BF8" s="38">
-        <v>10</v>
-      </c>
-      <c r="BG8" s="38">
-        <v>10</v>
-      </c>
-      <c r="BH8" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI8" s="40" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/OneRate.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/OneRate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwinchester\Documents\ShipWorks3x\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
     <definedName name="_lu1">#REF!</definedName>
     <definedName name="_lu2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="119">
   <si>
     <t>CUSTOMER_REFERENCE</t>
   </si>
@@ -376,13 +376,16 @@
     <t>Revenue+Labels</t>
   </si>
   <si>
-    <t xml:space="preserve">Save Label </t>
+    <t>SaveLabel</t>
+  </si>
+  <si>
+    <t>SpecialServiceTypes2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1847,23 +1850,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1899,23 +1885,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2094,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2428,7 +2397,7 @@
         <v>36</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>32</v>
